--- a/src/assets/event-template.xlsx
+++ b/src/assets/event-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/aeed9fc851e261d6/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{EAC7C08B-660E-428F-AE0F-ECDDE6F93483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{394B616A-84AC-42A0-8F04-488ECED14AC1}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{EAC7C08B-660E-428F-AE0F-ECDDE6F93483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CCA3ECE-CE21-4689-92BC-C6087838E926}"/>
   <bookViews>
     <workbookView xWindow="16080" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{799556D1-AEB4-4617-933E-FD0CAA30C36F}"/>
   </bookViews>
@@ -38,42 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>name*</t>
-  </si>
-  <si>
-    <t>description*</t>
-  </si>
-  <si>
-    <t>location*</t>
-  </si>
-  <si>
-    <t>address*</t>
-  </si>
-  <si>
-    <t>city*</t>
-  </si>
-  <si>
     <t>latitude</t>
   </si>
   <si>
     <t>longitude</t>
   </si>
   <si>
-    <t>capacity*</t>
-  </si>
-  <si>
-    <t>startDate*</t>
-  </si>
-  <si>
-    <t>endDate*</t>
-  </si>
-  <si>
-    <t>type*</t>
-  </si>
-  <si>
-    <t>day1*</t>
-  </si>
-  <si>
     <t>day3</t>
   </si>
   <si>
@@ -114,6 +84,36 @@
   </si>
   <si>
     <t>C1</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>startDate</t>
+  </si>
+  <si>
+    <t>endDate</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>day1</t>
   </si>
 </sst>
 </file>
@@ -149,9 +149,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +169,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,7 +495,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,85 +519,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>10</v>
